--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1217227.574893933</v>
+        <v>-1219786.845461488</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>311.0136412747491</v>
+        <v>113.1993606733246</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>410.9662774206981</v>
       </c>
       <c r="H2" t="n">
-        <v>295.0640301736143</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>43.29451177962358</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>204.1129955007334</v>
       </c>
       <c r="U2" t="n">
         <v>250.9987361002815</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.0233064626824</v>
       </c>
       <c r="H3" t="n">
-        <v>89.82709352349997</v>
+        <v>89.82709352349998</v>
       </c>
       <c r="I3" t="n">
-        <v>9.512185486736371</v>
+        <v>9.512185486736428</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>92.49395852841226</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>8.87956412667285</v>
+        <v>166.0457926480648</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>190.11729872947</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>92.74913477537434</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>231.9880677881808</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1060,16 +1060,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>48.84502579300995</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>140.7702669926118</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>167.0871020271709</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>26.79406931039841</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1294,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>105.3187722054209</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695616</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185645</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>132.6315337216688</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>160.3783204776943</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1771,10 +1771,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>61.66004604094925</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>202.7020590629028</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>19.91555826189108</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>93.40444476188232</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>126.6321535627876</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428152</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053461</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2561,13 +2561,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703274</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>205.7440206868702</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,10 +2956,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>83.53432244437043</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3038,13 +3038,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3196,16 +3196,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541829</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652586</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808201</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652586</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808201</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.23835084455</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
         <v>141.2394908002292</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1977.359272051134</v>
+        <v>1249.79471444962</v>
       </c>
       <c r="C2" t="n">
-        <v>1977.359272051134</v>
+        <v>1249.79471444962</v>
       </c>
       <c r="D2" t="n">
-        <v>1619.093573444384</v>
+        <v>891.5290158428691</v>
       </c>
       <c r="E2" t="n">
-        <v>1233.305320846139</v>
+        <v>891.5290158428691</v>
       </c>
       <c r="F2" t="n">
-        <v>822.319416056532</v>
+        <v>480.5431110532615</v>
       </c>
       <c r="G2" t="n">
-        <v>407.2019641164329</v>
+        <v>65.4256591131623</v>
       </c>
       <c r="H2" t="n">
-        <v>109.1574891935902</v>
+        <v>65.4256591131623</v>
       </c>
       <c r="I2" t="n">
-        <v>65.42565911316235</v>
+        <v>65.4256591131623</v>
       </c>
       <c r="J2" t="n">
         <v>250.5613272725627</v>
       </c>
       <c r="K2" t="n">
-        <v>578.7702206183947</v>
+        <v>578.7702206183938</v>
       </c>
       <c r="L2" t="n">
-        <v>1022.844136887445</v>
+        <v>1022.844136887443</v>
       </c>
       <c r="M2" t="n">
-        <v>1548.631370064182</v>
+        <v>1548.63137006418</v>
       </c>
       <c r="N2" t="n">
-        <v>2087.54019874618</v>
+        <v>2087.540198746177</v>
       </c>
       <c r="O2" t="n">
-        <v>2583.081262767916</v>
+        <v>2583.081262767913</v>
       </c>
       <c r="P2" t="n">
-        <v>2971.513095303805</v>
+        <v>2971.513095303802</v>
       </c>
       <c r="Q2" t="n">
-        <v>3215.036478301002</v>
+        <v>3215.036478301</v>
       </c>
       <c r="R2" t="n">
-        <v>3271.282955658117</v>
+        <v>3271.282955658115</v>
       </c>
       <c r="S2" t="n">
-        <v>3271.282955658117</v>
+        <v>3271.282955658115</v>
       </c>
       <c r="T2" t="n">
-        <v>3271.282955658117</v>
+        <v>3065.108212728081</v>
       </c>
       <c r="U2" t="n">
-        <v>3017.748878789146</v>
+        <v>2811.574135859109</v>
       </c>
       <c r="V2" t="n">
-        <v>3017.748878789146</v>
+        <v>2480.511248515539</v>
       </c>
       <c r="W2" t="n">
-        <v>2664.980223519031</v>
+        <v>2127.742593245424</v>
       </c>
       <c r="X2" t="n">
-        <v>2291.514465257952</v>
+        <v>1754.276834984345</v>
       </c>
       <c r="Y2" t="n">
-        <v>2291.514465257952</v>
+        <v>1364.137503008533</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1647.37174564539</v>
+        <v>931.3149953501908</v>
       </c>
       <c r="C3" t="n">
-        <v>1472.918716364263</v>
+        <v>756.8619660690638</v>
       </c>
       <c r="D3" t="n">
-        <v>1323.984306703012</v>
+        <v>607.9275564078125</v>
       </c>
       <c r="E3" t="n">
-        <v>1164.746851697556</v>
+        <v>448.690101402357</v>
       </c>
       <c r="F3" t="n">
-        <v>1018.212293724441</v>
+        <v>302.1555434292419</v>
       </c>
       <c r="G3" t="n">
-        <v>881.8251154793073</v>
+        <v>165.7683651841082</v>
       </c>
       <c r="H3" t="n">
-        <v>791.0906775767821</v>
+        <v>75.03392728158293</v>
       </c>
       <c r="I3" t="n">
-        <v>781.4824094083616</v>
+        <v>65.4256591131623</v>
       </c>
       <c r="J3" t="n">
-        <v>872.9300981008098</v>
+        <v>156.8733478056104</v>
       </c>
       <c r="K3" t="n">
-        <v>1107.383588374681</v>
+        <v>391.3268380794815</v>
       </c>
       <c r="L3" t="n">
-        <v>1468.957780560827</v>
+        <v>752.9010302656267</v>
       </c>
       <c r="M3" t="n">
-        <v>1910.254676661457</v>
+        <v>1194.197926366257</v>
       </c>
       <c r="N3" t="n">
-        <v>2377.640033397722</v>
+        <v>1661.583283102521</v>
       </c>
       <c r="O3" t="n">
-        <v>2782.986528471582</v>
+        <v>2066.929778176381</v>
       </c>
       <c r="P3" t="n">
-        <v>3088.979760503338</v>
+        <v>2400.597029664692</v>
       </c>
       <c r="Q3" t="n">
-        <v>3243.608936201564</v>
+        <v>2555.226205362918</v>
       </c>
       <c r="R3" t="n">
-        <v>3271.282955658117</v>
+        <v>2555.226205362918</v>
       </c>
       <c r="S3" t="n">
-        <v>3141.397829417917</v>
+        <v>2425.341079122718</v>
       </c>
       <c r="T3" t="n">
-        <v>2948.657777545536</v>
+        <v>2232.601027250337</v>
       </c>
       <c r="U3" t="n">
-        <v>2720.588346595889</v>
+        <v>2004.53159630069</v>
       </c>
       <c r="V3" t="n">
-        <v>2485.436238364146</v>
+        <v>1769.379488068947</v>
       </c>
       <c r="W3" t="n">
-        <v>2231.198881635945</v>
+        <v>1515.142131340745</v>
       </c>
       <c r="X3" t="n">
-        <v>2023.347381430412</v>
+        <v>1307.290631135213</v>
       </c>
       <c r="Y3" t="n">
-        <v>1815.587082665458</v>
+        <v>1099.530332370259</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>540.3376856449242</v>
+        <v>624.6066559225145</v>
       </c>
       <c r="C4" t="n">
-        <v>371.4015027170174</v>
+        <v>531.1784149847243</v>
       </c>
       <c r="D4" t="n">
-        <v>221.2848633046816</v>
+        <v>381.0617755723886</v>
       </c>
       <c r="E4" t="n">
-        <v>221.2848633046815</v>
+        <v>233.1486819899955</v>
       </c>
       <c r="F4" t="n">
-        <v>74.39491580677129</v>
+        <v>233.1486819899955</v>
       </c>
       <c r="G4" t="n">
-        <v>65.42565911316235</v>
+        <v>65.4256591131623</v>
       </c>
       <c r="H4" t="n">
-        <v>65.42565911316235</v>
+        <v>65.4256591131623</v>
       </c>
       <c r="I4" t="n">
-        <v>65.42565911316235</v>
+        <v>65.4256591131623</v>
       </c>
       <c r="J4" t="n">
-        <v>109.1495242182617</v>
+        <v>109.1495242182614</v>
       </c>
       <c r="K4" t="n">
-        <v>310.838102740152</v>
+        <v>310.8381027401518</v>
       </c>
       <c r="L4" t="n">
-        <v>624.4564789039122</v>
+        <v>624.4564789039117</v>
       </c>
       <c r="M4" t="n">
-        <v>965.5122071220436</v>
+        <v>965.5122071220429</v>
       </c>
       <c r="N4" t="n">
-        <v>1303.893008842036</v>
+        <v>1303.893008842035</v>
       </c>
       <c r="O4" t="n">
-        <v>1600.426152235784</v>
+        <v>1600.426152235783</v>
       </c>
       <c r="P4" t="n">
-        <v>1830.640801863762</v>
+        <v>1830.64080186376</v>
       </c>
       <c r="Q4" t="n">
-        <v>1906.594412149534</v>
+        <v>1906.594412149532</v>
       </c>
       <c r="R4" t="n">
-        <v>1906.594412149534</v>
+        <v>1906.594412149532</v>
       </c>
       <c r="S4" t="n">
-        <v>1714.556736665221</v>
+        <v>1906.594412149532</v>
       </c>
       <c r="T4" t="n">
-        <v>1714.556736665221</v>
+        <v>1906.594412149532</v>
       </c>
       <c r="U4" t="n">
-        <v>1425.452768722598</v>
+        <v>1617.49044420691</v>
       </c>
       <c r="V4" t="n">
-        <v>1170.768280516711</v>
+        <v>1362.805956001023</v>
       </c>
       <c r="W4" t="n">
-        <v>1170.768280516711</v>
+        <v>1073.388785964062</v>
       </c>
       <c r="X4" t="n">
-        <v>942.7787296186941</v>
+        <v>845.3992350660446</v>
       </c>
       <c r="Y4" t="n">
-        <v>721.986150475164</v>
+        <v>624.6066559225145</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1537.086630593157</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C5" t="n">
-        <v>1168.124113652745</v>
+        <v>869.0763550278978</v>
       </c>
       <c r="D5" t="n">
-        <v>809.8584150459947</v>
+        <v>510.8106564211473</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>510.8106564211473</v>
       </c>
       <c r="F5" t="n">
         <v>417.1246616985469</v>
@@ -4565,19 +4565,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792696</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261502</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y5" t="n">
-        <v>1923.686470657279</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>774.7644039315074</v>
+        <v>530.9956795433841</v>
       </c>
       <c r="C7" t="n">
-        <v>774.7644039315074</v>
+        <v>530.9956795433841</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>380.8790401310483</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1695.271901964595</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1473.505286534121</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1184.402419659765</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V7" t="n">
-        <v>1184.402419659765</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W7" t="n">
-        <v>1184.402419659765</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X7" t="n">
-        <v>956.4128687617472</v>
+        <v>933.436723517154</v>
       </c>
       <c r="Y7" t="n">
-        <v>956.4128687617472</v>
+        <v>712.6441443736238</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>646.2728717542868</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>235.2869669646793</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4832,22 +4832,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3298.541105134021</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3045.010628407857</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2713.947741064286</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>2361.179085794172</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>1987.713327533092</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y8" t="n">
-        <v>1987.713327533092</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>753.0765981364621</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>584.1404152085552</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>584.1404152085552</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4993,19 +4993,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.507193008249</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.517642110232</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.7250629667018</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5060,31 +5060,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5124,19 +5124,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.6374272687964</v>
+        <v>849.3843576263196</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408895</v>
+        <v>680.4481746984127</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408895</v>
+        <v>530.331535286077</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408895</v>
+        <v>382.418441703684</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429792</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578591</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000572</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2023.916610740954</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1769.232122535067</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X13" t="n">
-        <v>982.2858920990361</v>
+        <v>1251.825401600089</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.2858920990361</v>
+        <v>1031.032822456559</v>
       </c>
     </row>
     <row r="14">
@@ -5261,16 +5261,16 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5282,13 +5282,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5361,16 +5361,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327647</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048579</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925218</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E16" t="n">
-        <v>444.7013164925218</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F16" t="n">
-        <v>297.8113689946114</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>297.8113689946114</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>156.0995378368095</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,49 +5437,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630045</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5528,13 +5528,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474266</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="E19" t="n">
-        <v>113.9333885650335</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270439</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5683,40 +5683,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,13 +5765,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876684</v>
+        <v>707.6725264685181</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597615</v>
+        <v>538.7363435406112</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597615</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597615</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>411.9631215597615</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235164</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258105</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602303</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396416</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614382</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179081</v>
+        <v>889.3209912987578</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,22 +5987,22 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188007</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490404</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>150.8995423128889</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>662.1522880254208</v>
+        <v>513.853600740072</v>
       </c>
       <c r="C28" t="n">
-        <v>493.2161050975139</v>
+        <v>344.9174178121651</v>
       </c>
       <c r="D28" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121651</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121651</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121651</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1836.684541140056</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1582.000052934169</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1292.582882897208</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1064.593331999191</v>
+        <v>916.2946447138419</v>
       </c>
       <c r="Y28" t="n">
-        <v>843.8007528556606</v>
+        <v>695.5020655703117</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6473,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
         <v>402.7245934908939</v>
@@ -6622,7 +6622,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797744</v>
@@ -6634,7 +6634,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1348.981318788499</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319314</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656807</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150012</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942643</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580102</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345464</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,19 +7117,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7211,10 +7211,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384021</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7333,7 +7333,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7345,16 +7345,16 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547835</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7546,25 +7546,25 @@
         <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7576,7 +7576,7 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,28 +7804,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>27.95355500662191</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.57646828339964</v>
+        <v>1.622913276780366</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71.72020038873143</v>
+        <v>269.534480990156</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22553,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>295.0640301736143</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>43.29451177962372</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>110.2029851842623</v>
       </c>
       <c r="T2" t="n">
-        <v>204.1129955007334</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>74.75286257021557</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1662285213919</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9326943004822</v>
+        <v>144.9326943004823</v>
       </c>
       <c r="I4" t="n">
-        <v>96.95340549104682</v>
+        <v>96.95340549104687</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>89.8307234716369</v>
+        <v>89.83072347163699</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>190.1172987294701</v>
       </c>
       <c r="T4" t="n">
         <v>219.6343371202345</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671011879</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>84.77391660561949</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>65.33133491134285</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>19.60579027761628</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>15.88259428919201</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>125.5054897610402</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194255</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>72.11969353038653</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194236</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194147</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>80.44045370237399</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,10 +24844,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>137.2878198583898</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>202.6501519448738</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1241877.555897482</v>
+        <v>1241877.555897481</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1241877.555897482</v>
+        <v>1241877.555897481</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152326.9268048896</v>
+        <v>152326.9268048895</v>
       </c>
       <c r="C2" t="n">
         <v>184734.3982194639</v>
@@ -26338,7 +26338,7 @@
         <v>181607.9849302513</v>
       </c>
       <c r="K2" t="n">
-        <v>181607.9849302515</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="L2" t="n">
         <v>184734.3982194636</v>
@@ -26350,7 +26350,7 @@
         <v>184734.3982194636</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="P2" t="n">
         <v>184734.3982194636</v>
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1313514.533081207</v>
+        <v>1313514.533081206</v>
       </c>
       <c r="C3" t="n">
-        <v>14479.05232074563</v>
+        <v>14479.05232074668</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>213977.889412553</v>
       </c>
       <c r="K3" t="n">
-        <v>3495.241841022785</v>
+        <v>3495.241841022798</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.71799363164</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12350.05787405598</v>
+        <v>12350.05787405603</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26430,16 +26430,16 @@
         <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680583</v>
       </c>
       <c r="H4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.9762168058</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
@@ -26448,13 +26448,13 @@
         <v>19767.8354798993</v>
       </c>
       <c r="M4" t="n">
-        <v>19767.83547989934</v>
+        <v>19767.83547989929</v>
       </c>
       <c r="N4" t="n">
-        <v>19767.83547989927</v>
+        <v>19767.8354798993</v>
       </c>
       <c r="O4" t="n">
-        <v>19767.8354798993</v>
+        <v>19767.83547989935</v>
       </c>
       <c r="P4" t="n">
         <v>19767.8354798993</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106866.6399031116</v>
+        <v>106866.6399031115</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1280404.304053485</v>
+        <v>-1280764.387069202</v>
       </c>
       <c r="C6" t="n">
-        <v>-28642.60565083208</v>
+        <v>-28642.6056508332</v>
       </c>
       <c r="D6" t="n">
-        <v>-14163.55333008662</v>
+        <v>-14163.55333008661</v>
       </c>
       <c r="E6" t="n">
-        <v>-256703.9829178167</v>
+        <v>-256738.7208432524</v>
       </c>
       <c r="F6" t="n">
-        <v>68708.47888953846</v>
+        <v>68673.74096410276</v>
       </c>
       <c r="G6" t="n">
-        <v>68708.47888953846</v>
+        <v>68673.74096410279</v>
       </c>
       <c r="H6" t="n">
-        <v>68708.47888953851</v>
+        <v>68673.74096410262</v>
       </c>
       <c r="I6" t="n">
-        <v>68708.47888953837</v>
+        <v>68673.74096410273</v>
       </c>
       <c r="J6" t="n">
-        <v>-145269.4105230147</v>
+        <v>-145304.1484484503</v>
       </c>
       <c r="K6" t="n">
-        <v>65213.23704851574</v>
+        <v>65178.49912307999</v>
       </c>
       <c r="L6" t="n">
-        <v>42374.72889201716</v>
+        <v>42374.72889201727</v>
       </c>
       <c r="M6" t="n">
-        <v>-23252.58104986291</v>
+        <v>-23252.5810498629</v>
       </c>
       <c r="N6" t="n">
         <v>61802.44688564891</v>
       </c>
       <c r="O6" t="n">
-        <v>61802.446885649</v>
+        <v>61802.4468856489</v>
       </c>
       <c r="P6" t="n">
-        <v>61802.44688564888</v>
+        <v>61802.44688564891</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.068502520023717e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26713,13 +26713,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203969</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1078.694448491203</v>
+        <v>1078.694448491202</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145293</v>
+        <v>817.8207389145286</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1078.694448491203</v>
+        <v>1078.694448491202</v>
       </c>
       <c r="C3" t="n">
-        <v>11.08225210209548</v>
+        <v>11.08225210209639</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145293</v>
+        <v>817.8207389145286</v>
       </c>
       <c r="C4" t="n">
-        <v>13.58071648776354</v>
+        <v>13.58071648776422</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145291</v>
+        <v>817.8207389145289</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776377</v>
+        <v>13.58071648776399</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145293</v>
+        <v>817.8207389145286</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776354</v>
+        <v>13.58071648776422</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>314.1269109663371</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>154.2498708678728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,16 +27780,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>97.58893685355922</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>48.99875833883007</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>243.8346236262826</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>177.1239008292217</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>41.11519044114826</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,13 +28065,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-1.838888887011943e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.037392394209746e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>2.893003170356678e-12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29758,13 +29758,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30472,10 +30472,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.336460094436993</v>
+        <v>4.33646009443699</v>
       </c>
       <c r="H2" t="n">
-        <v>44.41077194215286</v>
+        <v>44.41077194215283</v>
       </c>
       <c r="I2" t="n">
-        <v>167.1813777907823</v>
+        <v>167.1813777907822</v>
       </c>
       <c r="J2" t="n">
-        <v>368.0516299402221</v>
+        <v>368.0516299402217</v>
       </c>
       <c r="K2" t="n">
-        <v>551.6139857377401</v>
+        <v>551.6139857377397</v>
       </c>
       <c r="L2" t="n">
-        <v>684.3259263528663</v>
+        <v>684.3259263528657</v>
       </c>
       <c r="M2" t="n">
-        <v>761.4444485573102</v>
+        <v>761.4444485573096</v>
       </c>
       <c r="N2" t="n">
-        <v>773.7654158006294</v>
+        <v>773.7654158006287</v>
       </c>
       <c r="O2" t="n">
-        <v>730.6447407365715</v>
+        <v>730.6447407365708</v>
       </c>
       <c r="P2" t="n">
-        <v>623.5883821551581</v>
+        <v>623.5883821551575</v>
       </c>
       <c r="Q2" t="n">
-        <v>468.2889050231332</v>
+        <v>468.2889050231328</v>
       </c>
       <c r="R2" t="n">
-        <v>272.400161407178</v>
+        <v>272.4001614071778</v>
       </c>
       <c r="S2" t="n">
-        <v>98.81708440198308</v>
+        <v>98.817084401983</v>
       </c>
       <c r="T2" t="n">
-        <v>18.98285406339795</v>
+        <v>18.98285406339793</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3469168075549593</v>
+        <v>0.3469168075549591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.320210700528248</v>
+        <v>2.320210700528246</v>
       </c>
       <c r="H3" t="n">
-        <v>22.4083507129965</v>
+        <v>22.40835071299648</v>
       </c>
       <c r="I3" t="n">
-        <v>79.88444736467871</v>
+        <v>79.88444736467865</v>
       </c>
       <c r="J3" t="n">
-        <v>219.2090293863114</v>
+        <v>219.2090293863112</v>
       </c>
       <c r="K3" t="n">
-        <v>374.6631463217039</v>
+        <v>374.6631463217036</v>
       </c>
       <c r="L3" t="n">
-        <v>503.7808365335566</v>
+        <v>503.7808365335562</v>
       </c>
       <c r="M3" t="n">
-        <v>587.8884744277054</v>
+        <v>587.888474427705</v>
       </c>
       <c r="N3" t="n">
-        <v>603.448133029055</v>
+        <v>603.4481330290546</v>
       </c>
       <c r="O3" t="n">
-        <v>552.0371485594554</v>
+        <v>552.037148559455</v>
       </c>
       <c r="P3" t="n">
-        <v>443.0584801736792</v>
+        <v>443.0584801736788</v>
       </c>
       <c r="Q3" t="n">
-        <v>296.1728606498865</v>
+        <v>296.1728606498863</v>
       </c>
       <c r="R3" t="n">
-        <v>144.0565906871837</v>
+        <v>144.0565906871836</v>
       </c>
       <c r="S3" t="n">
-        <v>43.09689612604001</v>
+        <v>43.09689612603997</v>
       </c>
       <c r="T3" t="n">
-        <v>9.352077341164293</v>
+        <v>9.352077341164286</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1526454408242269</v>
+        <v>0.1526454408242268</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.945186710393972</v>
+        <v>1.94518671039397</v>
       </c>
       <c r="H4" t="n">
-        <v>17.29447820695733</v>
+        <v>17.29447820695732</v>
       </c>
       <c r="I4" t="n">
-        <v>58.49706943621147</v>
+        <v>58.49706943621142</v>
       </c>
       <c r="J4" t="n">
-        <v>137.5247004248538</v>
+        <v>137.5247004248537</v>
       </c>
       <c r="K4" t="n">
-        <v>225.9953287166814</v>
+        <v>225.9953287166813</v>
       </c>
       <c r="L4" t="n">
-        <v>289.1962132889366</v>
+        <v>289.1962132889363</v>
       </c>
       <c r="M4" t="n">
-        <v>304.9168586120296</v>
+        <v>304.9168586120293</v>
       </c>
       <c r="N4" t="n">
-        <v>297.666617236925</v>
+        <v>297.6666172369248</v>
       </c>
       <c r="O4" t="n">
-        <v>274.9432997564135</v>
+        <v>274.9432997564133</v>
       </c>
       <c r="P4" t="n">
-        <v>235.2614908643763</v>
+        <v>235.2614908643761</v>
       </c>
       <c r="Q4" t="n">
-        <v>162.8828617221716</v>
+        <v>162.8828617221715</v>
       </c>
       <c r="R4" t="n">
-        <v>87.46266790553258</v>
+        <v>87.4626679055325</v>
       </c>
       <c r="S4" t="n">
-        <v>33.89929930750221</v>
+        <v>33.89929930750218</v>
       </c>
       <c r="T4" t="n">
-        <v>8.311252308046969</v>
+        <v>8.311252308046962</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1061010932942168</v>
+        <v>0.1061010932942167</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31844,22 +31844,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32081,19 +32081,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32254,7 +32254,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>184.4971006716334</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>172.8142548092792</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>187.0057254135358</v>
+        <v>187.0057254135355</v>
       </c>
       <c r="K2" t="n">
-        <v>331.5241346927596</v>
+        <v>331.5241346927591</v>
       </c>
       <c r="L2" t="n">
-        <v>448.5595113828791</v>
+        <v>448.5595113828785</v>
       </c>
       <c r="M2" t="n">
-        <v>531.0982153300375</v>
+        <v>531.0982153300369</v>
       </c>
       <c r="N2" t="n">
-        <v>544.3523522040384</v>
+        <v>544.3523522040377</v>
       </c>
       <c r="O2" t="n">
-        <v>500.5465293148848</v>
+        <v>500.5465293148841</v>
       </c>
       <c r="P2" t="n">
-        <v>392.3553863998886</v>
+        <v>392.355386399888</v>
       </c>
       <c r="Q2" t="n">
-        <v>245.9832151486837</v>
+        <v>245.9832151486833</v>
       </c>
       <c r="R2" t="n">
-        <v>56.81462359304589</v>
+        <v>56.81462359304567</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>92.37140271964466</v>
+        <v>92.37140271964449</v>
       </c>
       <c r="K3" t="n">
-        <v>236.821707347345</v>
+        <v>236.8217073473446</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2264567536824</v>
+        <v>365.226456753682</v>
       </c>
       <c r="M3" t="n">
-        <v>445.7544405056871</v>
+        <v>445.7544405056867</v>
       </c>
       <c r="N3" t="n">
-        <v>472.1064209457218</v>
+        <v>472.1064209457213</v>
       </c>
       <c r="O3" t="n">
-        <v>409.440904115011</v>
+        <v>409.4409041150105</v>
       </c>
       <c r="P3" t="n">
-        <v>309.0840727593489</v>
+        <v>337.0376277659705</v>
       </c>
       <c r="Q3" t="n">
-        <v>156.191086563865</v>
+        <v>156.1910865638648</v>
       </c>
       <c r="R3" t="n">
-        <v>27.95355500661939</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.16552030818104</v>
+        <v>44.16552030818093</v>
       </c>
       <c r="K4" t="n">
-        <v>203.7258368907986</v>
+        <v>203.7258368907984</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7862385492527</v>
+        <v>316.7862385492525</v>
       </c>
       <c r="M4" t="n">
-        <v>344.5007355738702</v>
+        <v>344.5007355738699</v>
       </c>
       <c r="N4" t="n">
-        <v>341.7987896161536</v>
+        <v>341.7987896161534</v>
       </c>
       <c r="O4" t="n">
-        <v>299.5284276704532</v>
+        <v>299.528427670453</v>
       </c>
       <c r="P4" t="n">
-        <v>232.5400501292698</v>
+        <v>232.5400501292696</v>
       </c>
       <c r="Q4" t="n">
-        <v>76.72081847047723</v>
+        <v>76.72081847047708</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>376.3054212373396</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010451</v>
@@ -36528,7 +36528,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>57.65947400496672</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37242,7 +37242,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
         <v>144.686904791938</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37479,10 +37479,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37716,10 +37716,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
